--- a/library-execel.xlsx
+++ b/library-execel.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22527"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A5A043F-A17A-4F70-9FCD-BAB9E7BF5307}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB2CA488-079C-4174-BED3-990BC4729F36}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3036" yWindow="3036" windowWidth="17280" windowHeight="8964" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="대출" sheetId="1" r:id="rId1"/>
@@ -1412,7 +1412,7 @@
   <dimension ref="A1:B7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
